--- a/files/29_11_2022/route_number_4.xlsx
+++ b/files/29_11_2022/route_number_4.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,147 +435,466 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>406136</v>
+        <v>634918</v>
       </c>
       <c r="B2">
-        <v>634858</v>
+        <v>619168</v>
       </c>
       <c r="C2">
-        <v>38.03461793</v>
+        <v>38.71452741</v>
       </c>
       <c r="D2">
-        <v>55.64176404</v>
+        <v>54.47036186</v>
       </c>
       <c r="E2">
-        <v>38.069901</v>
+        <v>38.72316845</v>
       </c>
       <c r="F2">
-        <v>55.61867746</v>
+        <v>54.47409332</v>
       </c>
       <c r="G2">
-        <v>17.65</v>
+        <v>11.64</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>7.649999999999999</v>
+        <v>1.640000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>634858</v>
+        <v>619168</v>
       </c>
       <c r="B3">
-        <v>607023</v>
+        <v>699068</v>
       </c>
       <c r="C3">
-        <v>38.069901</v>
+        <v>38.72316845</v>
       </c>
       <c r="D3">
-        <v>55.61867746</v>
+        <v>54.47409332</v>
       </c>
       <c r="E3">
-        <v>38.68375601</v>
+        <v>38.72616851</v>
       </c>
       <c r="F3">
-        <v>55.31991257</v>
+        <v>54.45842294</v>
       </c>
       <c r="G3">
-        <v>89.25</v>
+        <v>13.05</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>79.25</v>
+        <v>3.050000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>607023</v>
+        <v>699068</v>
       </c>
       <c r="B4">
-        <v>677563</v>
+        <v>607011</v>
       </c>
       <c r="C4">
-        <v>38.68375601</v>
+        <v>38.72616851</v>
       </c>
       <c r="D4">
-        <v>55.31991257</v>
+        <v>54.45842294</v>
       </c>
       <c r="E4">
-        <v>39.07174891</v>
+        <v>38.56358727</v>
       </c>
       <c r="F4">
-        <v>55.35194093</v>
+        <v>54.85244223</v>
       </c>
       <c r="G4">
-        <v>51.97</v>
+        <v>67.19</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>41.97</v>
+        <v>57.19</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>677563</v>
+        <v>607011</v>
       </c>
       <c r="B5">
-        <v>677536</v>
+        <v>698991</v>
       </c>
       <c r="C5">
-        <v>39.07174891</v>
+        <v>38.56358727</v>
       </c>
       <c r="D5">
-        <v>55.35194093</v>
+        <v>54.85244223</v>
       </c>
       <c r="E5">
-        <v>38.93331704</v>
+        <v>38.55715795</v>
       </c>
       <c r="F5">
-        <v>55.75319101</v>
+        <v>54.8547941</v>
       </c>
       <c r="G5">
-        <v>73.71000000000001</v>
+        <v>11.18</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>63.71000000000001</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>677536</v>
+        <v>698991</v>
       </c>
       <c r="B6">
-        <v>663162</v>
+        <v>619210</v>
       </c>
       <c r="C6">
-        <v>38.93331704</v>
+        <v>38.55715795</v>
       </c>
       <c r="D6">
-        <v>55.75319101</v>
+        <v>54.8547941</v>
       </c>
       <c r="E6">
-        <v>38.19113774</v>
+        <v>38.54049777</v>
       </c>
       <c r="F6">
-        <v>54.83828283</v>
+        <v>54.85157068</v>
       </c>
       <c r="G6">
-        <v>156.18</v>
+        <v>15.54</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>146.18</v>
+        <v>5.539999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>619210</v>
+      </c>
+      <c r="B7">
+        <v>686191</v>
+      </c>
+      <c r="C7">
+        <v>38.54049777</v>
+      </c>
+      <c r="D7">
+        <v>54.85157068</v>
+      </c>
+      <c r="E7">
+        <v>38.52380694</v>
+      </c>
+      <c r="F7">
+        <v>54.85336196</v>
+      </c>
+      <c r="G7">
+        <v>14.23</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>686191</v>
+      </c>
+      <c r="B8">
+        <v>622496</v>
+      </c>
+      <c r="C8">
+        <v>38.52380694</v>
+      </c>
+      <c r="D8">
+        <v>54.85336196</v>
+      </c>
+      <c r="E8">
+        <v>38.51740827</v>
+      </c>
+      <c r="F8">
+        <v>54.85312107</v>
+      </c>
+      <c r="G8">
+        <v>12.55</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>2.550000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>622496</v>
+      </c>
+      <c r="B9">
+        <v>606554</v>
+      </c>
+      <c r="C9">
+        <v>38.51740827</v>
+      </c>
+      <c r="D9">
+        <v>54.85312107</v>
+      </c>
+      <c r="E9">
+        <v>38.25564993</v>
+      </c>
+      <c r="F9">
+        <v>54.8414537</v>
+      </c>
+      <c r="G9">
+        <v>56.23</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>46.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>606554</v>
+      </c>
+      <c r="B10">
+        <v>607005</v>
+      </c>
+      <c r="C10">
+        <v>38.25564993</v>
+      </c>
+      <c r="D10">
+        <v>54.8414537</v>
+      </c>
+      <c r="E10">
+        <v>39.0202574</v>
+      </c>
+      <c r="F10">
+        <v>54.95433033</v>
+      </c>
+      <c r="G10">
+        <v>93.17</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>607005</v>
+      </c>
+      <c r="B11">
+        <v>619206</v>
+      </c>
+      <c r="C11">
+        <v>39.0202574</v>
+      </c>
+      <c r="D11">
+        <v>54.95433033</v>
+      </c>
+      <c r="E11">
+        <v>39.02932765</v>
+      </c>
+      <c r="F11">
+        <v>54.94978426</v>
+      </c>
+      <c r="G11">
+        <v>11.8</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>1.800000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>619206</v>
+      </c>
+      <c r="B12">
+        <v>607003</v>
+      </c>
+      <c r="C12">
+        <v>39.02932765</v>
+      </c>
+      <c r="D12">
+        <v>54.94978426</v>
+      </c>
+      <c r="E12">
+        <v>39.02979627</v>
+      </c>
+      <c r="F12">
+        <v>54.94771268</v>
+      </c>
+      <c r="G12">
+        <v>11.27</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>607003</v>
+      </c>
+      <c r="B13">
+        <v>635721</v>
+      </c>
+      <c r="C13">
+        <v>39.02979627</v>
+      </c>
+      <c r="D13">
+        <v>54.94771268</v>
+      </c>
+      <c r="E13">
+        <v>39.03291896</v>
+      </c>
+      <c r="F13">
+        <v>54.94514183</v>
+      </c>
+      <c r="G13">
+        <v>12.08</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>635721</v>
+      </c>
+      <c r="B14">
+        <v>662968</v>
+      </c>
+      <c r="C14">
+        <v>39.03291896</v>
+      </c>
+      <c r="D14">
+        <v>54.94514183</v>
+      </c>
+      <c r="E14">
+        <v>39.03969865</v>
+      </c>
+      <c r="F14">
+        <v>54.98117318</v>
+      </c>
+      <c r="G14">
+        <v>16.76</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>6.759999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>662968</v>
+      </c>
+      <c r="B15">
+        <v>622348</v>
+      </c>
+      <c r="C15">
+        <v>39.03969865</v>
+      </c>
+      <c r="D15">
+        <v>54.98117318</v>
+      </c>
+      <c r="E15">
+        <v>39.03909864</v>
+      </c>
+      <c r="F15">
+        <v>54.98318344</v>
+      </c>
+      <c r="G15">
+        <v>12.17</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>622348</v>
+      </c>
+      <c r="B16">
+        <v>642873</v>
+      </c>
+      <c r="C16">
+        <v>39.03909864</v>
+      </c>
+      <c r="D16">
+        <v>54.98318344</v>
+      </c>
+      <c r="E16">
+        <v>39.34443884</v>
+      </c>
+      <c r="F16">
+        <v>54.94148045</v>
+      </c>
+      <c r="G16">
+        <v>42.76</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>32.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>642873</v>
+      </c>
+      <c r="B17">
+        <v>622359</v>
+      </c>
+      <c r="C17">
+        <v>39.34443884</v>
+      </c>
+      <c r="D17">
+        <v>54.94148045</v>
+      </c>
+      <c r="E17">
+        <v>37.39347708</v>
+      </c>
+      <c r="F17">
+        <v>54.93421023</v>
+      </c>
+      <c r="G17">
+        <v>186.42</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>176.42</v>
       </c>
     </row>
   </sheetData>
